--- a/pivot/time2.xlsx
+++ b/pivot/time2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B927182F-4CE5-4206-B5C3-31DE9F5B6CC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Slashdot" sheetId="1" r:id="rId1"/>
@@ -108,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,9 +157,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -197,6 +196,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -310,7 +310,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C401-40F5-B060-A3F60EFA96E4}"/>
             </c:ext>
@@ -393,7 +393,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C401-40F5-B060-A3F60EFA96E4}"/>
             </c:ext>
@@ -476,7 +476,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C401-40F5-B060-A3F60EFA96E4}"/>
             </c:ext>
@@ -559,7 +559,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C401-40F5-B060-A3F60EFA96E4}"/>
             </c:ext>
@@ -642,7 +642,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C401-40F5-B060-A3F60EFA96E4}"/>
             </c:ext>
@@ -725,7 +725,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C12-45DC-ACD4-01A03356F631}"/>
             </c:ext>
@@ -810,7 +810,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4832-4BC5-8D32-E038D0EF8F3A}"/>
             </c:ext>
@@ -826,11 +826,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2053589135"/>
-        <c:axId val="2051979647"/>
+        <c:axId val="388967504"/>
+        <c:axId val="439705640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2053589135"/>
+        <c:axId val="388967504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,7 +873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051979647"/>
+        <c:crossAx val="439705640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -881,7 +881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051979647"/>
+        <c:axId val="439705640"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -935,7 +935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2053589135"/>
+        <c:crossAx val="388967504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -949,6 +949,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -980,14 +981,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1023,9 +1024,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1062,6 +1063,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1196,7 +1198,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0BB3-4593-97D6-51CA5148A9F5}"/>
             </c:ext>
@@ -1301,7 +1303,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0BB3-4593-97D6-51CA5148A9F5}"/>
             </c:ext>
@@ -1406,7 +1408,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0BB3-4593-97D6-51CA5148A9F5}"/>
             </c:ext>
@@ -1511,7 +1513,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0BB3-4593-97D6-51CA5148A9F5}"/>
             </c:ext>
@@ -1616,7 +1618,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0BB3-4593-97D6-51CA5148A9F5}"/>
             </c:ext>
@@ -1721,7 +1723,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0BB3-4593-97D6-51CA5148A9F5}"/>
             </c:ext>
@@ -1737,11 +1739,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="922613247"/>
-        <c:axId val="816115151"/>
+        <c:axId val="438590144"/>
+        <c:axId val="438590536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="922613247"/>
+        <c:axId val="438590144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="816115151"/>
+        <c:crossAx val="438590536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1792,7 +1794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="816115151"/>
+        <c:axId val="438590536"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1846,7 +1848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="922613247"/>
+        <c:crossAx val="438590144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1860,6 +1862,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1891,14 +1894,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1934,9 +1937,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1973,6 +1976,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2080,7 +2084,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EAE7-4384-B470-21783463088D}"/>
             </c:ext>
@@ -2157,7 +2161,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EAE7-4384-B470-21783463088D}"/>
             </c:ext>
@@ -2234,7 +2238,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EAE7-4384-B470-21783463088D}"/>
             </c:ext>
@@ -2311,7 +2315,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EAE7-4384-B470-21783463088D}"/>
             </c:ext>
@@ -2388,7 +2392,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-EAE7-4384-B470-21783463088D}"/>
             </c:ext>
@@ -2465,7 +2469,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-EAE7-4384-B470-21783463088D}"/>
             </c:ext>
@@ -2481,11 +2485,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1685034080"/>
-        <c:axId val="1646691264"/>
+        <c:axId val="438591320"/>
+        <c:axId val="443782664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1685034080"/>
+        <c:axId val="438591320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2528,7 +2532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646691264"/>
+        <c:crossAx val="443782664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2536,7 +2540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646691264"/>
+        <c:axId val="443782664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,7 +2591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1685034080"/>
+        <c:crossAx val="438591320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2601,6 +2605,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2668,9 +2673,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2707,6 +2712,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2814,7 +2820,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8885-48DC-979E-95E0E5B6E917}"/>
             </c:ext>
@@ -2891,7 +2897,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8885-48DC-979E-95E0E5B6E917}"/>
             </c:ext>
@@ -2968,7 +2974,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8885-48DC-979E-95E0E5B6E917}"/>
             </c:ext>
@@ -3045,7 +3051,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8885-48DC-979E-95E0E5B6E917}"/>
             </c:ext>
@@ -3122,7 +3128,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8885-48DC-979E-95E0E5B6E917}"/>
             </c:ext>
@@ -3199,7 +3205,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-8885-48DC-979E-95E0E5B6E917}"/>
             </c:ext>
@@ -3215,11 +3221,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1685034080"/>
-        <c:axId val="1646691264"/>
+        <c:axId val="443783448"/>
+        <c:axId val="443783840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1685034080"/>
+        <c:axId val="443783448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3262,7 +3268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646691264"/>
+        <c:crossAx val="443783840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3270,7 +3276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646691264"/>
+        <c:axId val="443783840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,7 +3327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1685034080"/>
+        <c:crossAx val="443783448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3335,6 +3341,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3402,9 +3409,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3441,6 +3448,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3548,7 +3556,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-04DC-4EBE-A256-7B4CED9D3AD3}"/>
             </c:ext>
@@ -3625,7 +3633,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-04DC-4EBE-A256-7B4CED9D3AD3}"/>
             </c:ext>
@@ -3702,7 +3710,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-04DC-4EBE-A256-7B4CED9D3AD3}"/>
             </c:ext>
@@ -3779,7 +3787,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-04DC-4EBE-A256-7B4CED9D3AD3}"/>
             </c:ext>
@@ -3856,7 +3864,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-04DC-4EBE-A256-7B4CED9D3AD3}"/>
             </c:ext>
@@ -3933,7 +3941,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-04DC-4EBE-A256-7B4CED9D3AD3}"/>
             </c:ext>
@@ -3949,11 +3957,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1685034080"/>
-        <c:axId val="1646691264"/>
+        <c:axId val="443784624"/>
+        <c:axId val="443785016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1685034080"/>
+        <c:axId val="443784624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3996,7 +4004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646691264"/>
+        <c:crossAx val="443785016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4004,7 +4012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646691264"/>
+        <c:axId val="443785016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4055,7 +4063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1685034080"/>
+        <c:crossAx val="443784624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4069,6 +4077,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4136,9 +4145,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4175,6 +4184,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4282,7 +4292,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-01F2-4EF7-B3B3-479C3554A14E}"/>
             </c:ext>
@@ -4359,7 +4369,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-01F2-4EF7-B3B3-479C3554A14E}"/>
             </c:ext>
@@ -4436,7 +4446,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-01F2-4EF7-B3B3-479C3554A14E}"/>
             </c:ext>
@@ -4513,7 +4523,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-01F2-4EF7-B3B3-479C3554A14E}"/>
             </c:ext>
@@ -4590,7 +4600,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-01F2-4EF7-B3B3-479C3554A14E}"/>
             </c:ext>
@@ -4667,7 +4677,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-01F2-4EF7-B3B3-479C3554A14E}"/>
             </c:ext>
@@ -4683,11 +4693,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1685034080"/>
-        <c:axId val="1646691264"/>
+        <c:axId val="443785800"/>
+        <c:axId val="443786192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1685034080"/>
+        <c:axId val="443785800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4730,7 +4740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646691264"/>
+        <c:crossAx val="443786192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4738,7 +4748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646691264"/>
+        <c:axId val="443786192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4789,7 +4799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1685034080"/>
+        <c:crossAx val="443785800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4803,6 +4813,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4870,9 +4881,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4909,6 +4920,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5016,7 +5028,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7DD6-4E71-A74C-091D18AF91A3}"/>
             </c:ext>
@@ -5093,7 +5105,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7DD6-4E71-A74C-091D18AF91A3}"/>
             </c:ext>
@@ -5170,7 +5182,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7DD6-4E71-A74C-091D18AF91A3}"/>
             </c:ext>
@@ -5247,7 +5259,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7DD6-4E71-A74C-091D18AF91A3}"/>
             </c:ext>
@@ -5324,7 +5336,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7DD6-4E71-A74C-091D18AF91A3}"/>
             </c:ext>
@@ -5401,7 +5413,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7DD6-4E71-A74C-091D18AF91A3}"/>
             </c:ext>
@@ -5417,11 +5429,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1685034080"/>
-        <c:axId val="1646691264"/>
+        <c:axId val="443786976"/>
+        <c:axId val="443787368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1685034080"/>
+        <c:axId val="443786976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5464,7 +5476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646691264"/>
+        <c:crossAx val="443787368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5472,7 +5484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646691264"/>
+        <c:axId val="443787368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5523,7 +5535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1685034080"/>
+        <c:crossAx val="443786976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5537,6 +5549,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5604,9 +5617,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5643,6 +5656,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5750,7 +5764,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-46BA-4C27-808C-72C499A64B82}"/>
             </c:ext>
@@ -5827,7 +5841,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-46BA-4C27-808C-72C499A64B82}"/>
             </c:ext>
@@ -5904,7 +5918,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-46BA-4C27-808C-72C499A64B82}"/>
             </c:ext>
@@ -5981,7 +5995,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-46BA-4C27-808C-72C499A64B82}"/>
             </c:ext>
@@ -6058,7 +6072,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-46BA-4C27-808C-72C499A64B82}"/>
             </c:ext>
@@ -6135,7 +6149,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-46BA-4C27-808C-72C499A64B82}"/>
             </c:ext>
@@ -6151,11 +6165,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1685034080"/>
-        <c:axId val="1646691264"/>
+        <c:axId val="443788152"/>
+        <c:axId val="443788544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1685034080"/>
+        <c:axId val="443788152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6198,7 +6212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646691264"/>
+        <c:crossAx val="443788544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6206,7 +6220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646691264"/>
+        <c:axId val="443788544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6257,7 +6271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1685034080"/>
+        <c:crossAx val="443788152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6271,6 +6285,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6338,9 +6353,9 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6377,6 +6392,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6484,7 +6500,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6225-4633-9091-692923E2B950}"/>
             </c:ext>
@@ -6561,7 +6577,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6225-4633-9091-692923E2B950}"/>
             </c:ext>
@@ -6638,7 +6654,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6225-4633-9091-692923E2B950}"/>
             </c:ext>
@@ -6715,7 +6731,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6225-4633-9091-692923E2B950}"/>
             </c:ext>
@@ -6792,7 +6808,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6225-4633-9091-692923E2B950}"/>
             </c:ext>
@@ -6869,7 +6885,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-6225-4633-9091-692923E2B950}"/>
             </c:ext>
@@ -6885,11 +6901,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1685034080"/>
-        <c:axId val="1646691264"/>
+        <c:axId val="443789328"/>
+        <c:axId val="443789720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1685034080"/>
+        <c:axId val="443789328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6932,7 +6948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646691264"/>
+        <c:crossAx val="443789720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6940,7 +6956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646691264"/>
+        <c:axId val="443789720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6991,7 +7007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1685034080"/>
+        <c:crossAx val="443789328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7005,6 +7021,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7072,9 +7089,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7111,6 +7128,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7245,7 +7263,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E173-44B3-BDEB-F21D546923FF}"/>
             </c:ext>
@@ -7350,7 +7368,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E173-44B3-BDEB-F21D546923FF}"/>
             </c:ext>
@@ -7455,7 +7473,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E173-44B3-BDEB-F21D546923FF}"/>
             </c:ext>
@@ -7560,7 +7578,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E173-44B3-BDEB-F21D546923FF}"/>
             </c:ext>
@@ -7665,7 +7683,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E173-44B3-BDEB-F21D546923FF}"/>
             </c:ext>
@@ -7770,7 +7788,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-683D-4A22-9D87-132F005A1AE9}"/>
             </c:ext>
@@ -7786,11 +7804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2058885663"/>
-        <c:axId val="2046668255"/>
+        <c:axId val="439706424"/>
+        <c:axId val="439706816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2058885663"/>
+        <c:axId val="439706424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7833,7 +7851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046668255"/>
+        <c:crossAx val="439706816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7841,7 +7859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2046668255"/>
+        <c:axId val="439706816"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -7895,7 +7913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058885663"/>
+        <c:crossAx val="439706424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7909,6 +7927,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7940,14 +7959,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7983,9 +8002,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8022,6 +8041,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8135,7 +8155,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1BEC-4819-8FF4-A62DD3E188D4}"/>
             </c:ext>
@@ -8218,7 +8238,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1BEC-4819-8FF4-A62DD3E188D4}"/>
             </c:ext>
@@ -8301,7 +8321,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1BEC-4819-8FF4-A62DD3E188D4}"/>
             </c:ext>
@@ -8384,7 +8404,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1BEC-4819-8FF4-A62DD3E188D4}"/>
             </c:ext>
@@ -8467,7 +8487,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1BEC-4819-8FF4-A62DD3E188D4}"/>
             </c:ext>
@@ -8550,7 +8570,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-32B1-4539-9136-0FD284ED6A4F}"/>
             </c:ext>
@@ -8635,7 +8655,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-32B1-4539-9136-0FD284ED6A4F}"/>
             </c:ext>
@@ -8651,11 +8671,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="817294175"/>
-        <c:axId val="823995663"/>
+        <c:axId val="439709168"/>
+        <c:axId val="438583872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="817294175"/>
+        <c:axId val="439709168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8698,7 +8718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823995663"/>
+        <c:crossAx val="438583872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8706,7 +8726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="823995663"/>
+        <c:axId val="438583872"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -8760,7 +8780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817294175"/>
+        <c:crossAx val="439709168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8774,6 +8794,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8841,9 +8862,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8880,6 +8901,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9014,7 +9036,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0C5-4BF8-8DFF-DCD9611F9A16}"/>
             </c:ext>
@@ -9119,7 +9141,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0C5-4BF8-8DFF-DCD9611F9A16}"/>
             </c:ext>
@@ -9224,7 +9246,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D0C5-4BF8-8DFF-DCD9611F9A16}"/>
             </c:ext>
@@ -9329,7 +9351,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D0C5-4BF8-8DFF-DCD9611F9A16}"/>
             </c:ext>
@@ -9434,7 +9456,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D0C5-4BF8-8DFF-DCD9611F9A16}"/>
             </c:ext>
@@ -9539,7 +9561,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4F0C-47B3-8F61-B301D1226146}"/>
             </c:ext>
@@ -9555,11 +9577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="922613247"/>
-        <c:axId val="816115151"/>
+        <c:axId val="438585048"/>
+        <c:axId val="438585440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="922613247"/>
+        <c:axId val="438585048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9602,7 +9624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="816115151"/>
+        <c:crossAx val="438585440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9610,7 +9632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="816115151"/>
+        <c:axId val="438585440"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -9664,7 +9686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="922613247"/>
+        <c:crossAx val="438585048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9678,6 +9700,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9709,14 +9732,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9752,9 +9775,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9791,6 +9814,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9904,7 +9928,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6DCB-4C1A-9A89-E3180E619432}"/>
             </c:ext>
@@ -9987,7 +10011,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6DCB-4C1A-9A89-E3180E619432}"/>
             </c:ext>
@@ -10070,7 +10094,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6DCB-4C1A-9A89-E3180E619432}"/>
             </c:ext>
@@ -10153,7 +10177,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6DCB-4C1A-9A89-E3180E619432}"/>
             </c:ext>
@@ -10236,7 +10260,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6DCB-4C1A-9A89-E3180E619432}"/>
             </c:ext>
@@ -10319,7 +10343,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8745-4432-B36D-C30A79733AF5}"/>
             </c:ext>
@@ -10404,7 +10428,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8745-4432-B36D-C30A79733AF5}"/>
             </c:ext>
@@ -10420,11 +10444,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="817294175"/>
-        <c:axId val="823995663"/>
+        <c:axId val="438586224"/>
+        <c:axId val="438586616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="817294175"/>
+        <c:axId val="438586224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10467,7 +10491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823995663"/>
+        <c:crossAx val="438586616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10475,7 +10499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="823995663"/>
+        <c:axId val="438586616"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -10529,7 +10553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817294175"/>
+        <c:crossAx val="438586224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10543,6 +10567,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10610,9 +10635,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10649,6 +10674,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10783,7 +10809,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A320-4E6C-BF3F-9F2B7530DEC5}"/>
             </c:ext>
@@ -10888,7 +10914,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A320-4E6C-BF3F-9F2B7530DEC5}"/>
             </c:ext>
@@ -10993,7 +11019,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A320-4E6C-BF3F-9F2B7530DEC5}"/>
             </c:ext>
@@ -11098,7 +11124,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A320-4E6C-BF3F-9F2B7530DEC5}"/>
             </c:ext>
@@ -11203,7 +11229,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A320-4E6C-BF3F-9F2B7530DEC5}"/>
             </c:ext>
@@ -11308,7 +11334,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A320-4E6C-BF3F-9F2B7530DEC5}"/>
             </c:ext>
@@ -11324,11 +11350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="922613247"/>
-        <c:axId val="816115151"/>
+        <c:axId val="438584656"/>
+        <c:axId val="438587400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="922613247"/>
+        <c:axId val="438584656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11371,7 +11397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="816115151"/>
+        <c:crossAx val="438587400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11379,7 +11405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="816115151"/>
+        <c:axId val="438587400"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -11432,7 +11458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="922613247"/>
+        <c:crossAx val="438584656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11446,6 +11472,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11477,14 +11504,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11520,9 +11547,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11559,6 +11586,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11672,7 +11700,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8D6F-4646-A873-7F201BEE620F}"/>
             </c:ext>
@@ -11755,7 +11783,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8D6F-4646-A873-7F201BEE620F}"/>
             </c:ext>
@@ -11838,7 +11866,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8D6F-4646-A873-7F201BEE620F}"/>
             </c:ext>
@@ -11921,7 +11949,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8D6F-4646-A873-7F201BEE620F}"/>
             </c:ext>
@@ -12004,7 +12032,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8D6F-4646-A873-7F201BEE620F}"/>
             </c:ext>
@@ -12087,7 +12115,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-8D6F-4646-A873-7F201BEE620F}"/>
             </c:ext>
@@ -12172,7 +12200,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-8D6F-4646-A873-7F201BEE620F}"/>
             </c:ext>
@@ -12188,11 +12216,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="817294175"/>
-        <c:axId val="823995663"/>
+        <c:axId val="439708776"/>
+        <c:axId val="439708384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="817294175"/>
+        <c:axId val="439708776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12235,7 +12263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823995663"/>
+        <c:crossAx val="439708384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12243,7 +12271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="823995663"/>
+        <c:axId val="439708384"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -12297,7 +12325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817294175"/>
+        <c:crossAx val="439708776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12311,6 +12339,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12378,9 +12407,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12417,6 +12446,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12551,7 +12581,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A44B-44B8-8C60-62CD79B4128E}"/>
             </c:ext>
@@ -12656,7 +12686,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A44B-44B8-8C60-62CD79B4128E}"/>
             </c:ext>
@@ -12761,7 +12791,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A44B-44B8-8C60-62CD79B4128E}"/>
             </c:ext>
@@ -12866,7 +12896,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A44B-44B8-8C60-62CD79B4128E}"/>
             </c:ext>
@@ -12971,7 +13001,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A44B-44B8-8C60-62CD79B4128E}"/>
             </c:ext>
@@ -13076,7 +13106,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A44B-44B8-8C60-62CD79B4128E}"/>
             </c:ext>
@@ -13092,11 +13122,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="922613247"/>
-        <c:axId val="816115151"/>
+        <c:axId val="439707600"/>
+        <c:axId val="438588184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="922613247"/>
+        <c:axId val="439707600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13139,7 +13169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="816115151"/>
+        <c:crossAx val="438588184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13147,7 +13177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="816115151"/>
+        <c:axId val="438588184"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -13201,7 +13231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="922613247"/>
+        <c:crossAx val="439707600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13215,6 +13245,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13246,14 +13277,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13289,9 +13320,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13328,6 +13359,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13441,7 +13473,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FDA3-4ADA-9986-8E39C4A8C56D}"/>
             </c:ext>
@@ -13524,7 +13556,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FDA3-4ADA-9986-8E39C4A8C56D}"/>
             </c:ext>
@@ -13607,7 +13639,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FDA3-4ADA-9986-8E39C4A8C56D}"/>
             </c:ext>
@@ -13690,7 +13722,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FDA3-4ADA-9986-8E39C4A8C56D}"/>
             </c:ext>
@@ -13773,7 +13805,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FDA3-4ADA-9986-8E39C4A8C56D}"/>
             </c:ext>
@@ -13856,7 +13888,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-FDA3-4ADA-9986-8E39C4A8C56D}"/>
             </c:ext>
@@ -13941,7 +13973,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-FDA3-4ADA-9986-8E39C4A8C56D}"/>
             </c:ext>
@@ -13957,11 +13989,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="817294175"/>
-        <c:axId val="823995663"/>
+        <c:axId val="438588968"/>
+        <c:axId val="438589360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="817294175"/>
+        <c:axId val="438588968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14004,7 +14036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823995663"/>
+        <c:crossAx val="438589360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14012,7 +14044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="823995663"/>
+        <c:axId val="438589360"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -14066,7 +14098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817294175"/>
+        <c:crossAx val="438588968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14080,6 +14112,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23397,7 +23430,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199DE40E-7BBF-4CA7-A4FF-08CEE051AD63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{199DE40E-7BBF-4CA7-A4FF-08CEE051AD63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23433,7 +23466,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4D81BA-2D4A-49AC-8613-4F3C140EAA10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D4D81BA-2D4A-49AC-8613-4F3C140EAA10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23469,7 +23502,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8FB22F-C6F2-4AF4-B0B6-01345E2E6DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED8FB22F-C6F2-4AF4-B0B6-01345E2E6DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23505,7 +23538,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDEB1F6-3BE7-4E5A-BC72-2D236B2083EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFDEB1F6-3BE7-4E5A-BC72-2D236B2083EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23541,7 +23574,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BA56C3-805A-4914-A127-4D913FE45377}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23BA56C3-805A-4914-A127-4D913FE45377}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23579,7 +23612,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C10D9F-9929-4E0A-BC74-A794FD546A0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46C10D9F-9929-4E0A-BC74-A794FD546A0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23617,7 +23650,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FA365F-9095-4FD4-85B6-77F469554B6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60FA365F-9095-4FD4-85B6-77F469554B6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23655,7 +23688,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5832652F-3E1B-41F7-84D2-F702E6A9A773}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5832652F-3E1B-41F7-84D2-F702E6A9A773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23693,7 +23726,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F0132C-0EFC-4F9F-9F7A-9D91225AA3D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20F0132C-0EFC-4F9F-9F7A-9D91225AA3D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23731,7 +23764,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D3E358-B9B5-464A-9CBD-2980D617CEDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66D3E358-B9B5-464A-9CBD-2980D617CEDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23774,7 +23807,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6A7E6F-7E9D-4DC1-87DF-9BF44D95D250}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D6A7E6F-7E9D-4DC1-87DF-9BF44D95D250}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23810,7 +23843,7 @@
         <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276A934E-0DDC-4FE6-A981-65182D9A394C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276A934E-0DDC-4FE6-A981-65182D9A394C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23848,7 +23881,7 @@
         <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453164B8-93F5-4DA7-A76E-6C480F92D9CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{453164B8-93F5-4DA7-A76E-6C480F92D9CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23886,7 +23919,7 @@
         <xdr:cNvPr id="17" name="Chart 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6D8ACF-CC5D-42F4-AFD1-136DC316B571}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F6D8ACF-CC5D-42F4-AFD1-136DC316B571}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23924,7 +23957,7 @@
         <xdr:cNvPr id="18" name="Chart 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D9899C-2263-46C4-AF2F-59CA59C53371}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8D9899C-2263-46C4-AF2F-59CA59C53371}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23962,7 +23995,7 @@
         <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE89FE4-9AA0-4CA7-8D43-2699984BC187}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEE89FE4-9AA0-4CA7-8D43-2699984BC187}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24000,7 +24033,7 @@
         <xdr:cNvPr id="20" name="Chart 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4205BC2-6FFD-45A4-9A8E-97A17E7D3184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4205BC2-6FFD-45A4-9A8E-97A17E7D3184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24285,7 +24318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -28799,7 +28832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04218CA-24C1-4216-A555-E40A116FED1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33312,10 +33345,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF220BE2-5C84-44A4-A3B1-F5A09A2B5A64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
@@ -37825,7 +37858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DA7ED4-92FA-4CF7-9096-6F5B1CA8FD0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42338,7 +42371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56173D7C-1813-49F0-B638-5D712A36B025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -46851,11 +46884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6641D4-9D9F-437B-BDC3-57FD62A69C2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP29" sqref="AP29"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47978,11 +48011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB195A99-9B10-4DCD-A51F-46930167FE51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30:T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pivot/time2.xlsx
+++ b/pivot/time2.xlsx
@@ -826,11 +826,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="388967504"/>
-        <c:axId val="439705640"/>
+        <c:axId val="388498752"/>
+        <c:axId val="388499144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="388967504"/>
+        <c:axId val="388498752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,7 +873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439705640"/>
+        <c:crossAx val="388499144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -881,7 +881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439705640"/>
+        <c:axId val="388499144"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -935,7 +935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388967504"/>
+        <c:crossAx val="388498752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1739,11 +1739,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438590144"/>
-        <c:axId val="438590536"/>
+        <c:axId val="391268160"/>
+        <c:axId val="391268552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="438590144"/>
+        <c:axId val="391268160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,7 +1786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438590536"/>
+        <c:crossAx val="391268552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1794,7 +1794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438590536"/>
+        <c:axId val="391268552"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1848,7 +1848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438590144"/>
+        <c:crossAx val="391268160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2485,11 +2485,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="438591320"/>
-        <c:axId val="443782664"/>
+        <c:axId val="391269336"/>
+        <c:axId val="391269728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="438591320"/>
+        <c:axId val="391269336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,7 +2532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443782664"/>
+        <c:crossAx val="391269728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2540,7 +2540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443782664"/>
+        <c:axId val="391269728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,7 +2591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438591320"/>
+        <c:crossAx val="391269336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3221,11 +3221,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="443783448"/>
-        <c:axId val="443783840"/>
+        <c:axId val="392028072"/>
+        <c:axId val="392028464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443783448"/>
+        <c:axId val="392028072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3268,7 +3268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443783840"/>
+        <c:crossAx val="392028464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3276,7 +3276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443783840"/>
+        <c:axId val="392028464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3327,7 +3327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443783448"/>
+        <c:crossAx val="392028072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3957,11 +3957,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="443784624"/>
-        <c:axId val="443785016"/>
+        <c:axId val="392029248"/>
+        <c:axId val="392029640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443784624"/>
+        <c:axId val="392029248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +4004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443785016"/>
+        <c:crossAx val="392029640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4012,7 +4012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443785016"/>
+        <c:axId val="392029640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4063,7 +4063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443784624"/>
+        <c:crossAx val="392029248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4693,11 +4693,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="443785800"/>
-        <c:axId val="443786192"/>
+        <c:axId val="392030424"/>
+        <c:axId val="392030816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443785800"/>
+        <c:axId val="392030424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4740,7 +4740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443786192"/>
+        <c:crossAx val="392030816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4748,7 +4748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443786192"/>
+        <c:axId val="392030816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,7 +4799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443785800"/>
+        <c:crossAx val="392030424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5429,11 +5429,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="443786976"/>
-        <c:axId val="443787368"/>
+        <c:axId val="392031600"/>
+        <c:axId val="391946144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443786976"/>
+        <c:axId val="392031600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5476,7 +5476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443787368"/>
+        <c:crossAx val="391946144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5484,7 +5484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443787368"/>
+        <c:axId val="391946144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,7 +5535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443786976"/>
+        <c:crossAx val="392031600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6165,11 +6165,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="443788152"/>
-        <c:axId val="443788544"/>
+        <c:axId val="391946928"/>
+        <c:axId val="391947320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443788152"/>
+        <c:axId val="391946928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6212,7 +6212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443788544"/>
+        <c:crossAx val="391947320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6220,7 +6220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443788544"/>
+        <c:axId val="391947320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6271,7 +6271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443788152"/>
+        <c:crossAx val="391946928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6901,11 +6901,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="443789328"/>
-        <c:axId val="443789720"/>
+        <c:axId val="391948104"/>
+        <c:axId val="391948496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443789328"/>
+        <c:axId val="391948104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6948,7 +6948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443789720"/>
+        <c:crossAx val="391948496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6956,7 +6956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443789720"/>
+        <c:axId val="391948496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7007,7 +7007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443789328"/>
+        <c:crossAx val="391948104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7804,11 +7804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439706424"/>
-        <c:axId val="439706816"/>
+        <c:axId val="389684120"/>
+        <c:axId val="389684512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="439706424"/>
+        <c:axId val="389684120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7851,7 +7851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439706816"/>
+        <c:crossAx val="389684512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7859,7 +7859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439706816"/>
+        <c:axId val="389684512"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -7913,7 +7913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439706424"/>
+        <c:crossAx val="389684120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8671,11 +8671,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="439709168"/>
-        <c:axId val="438583872"/>
+        <c:axId val="389685296"/>
+        <c:axId val="389685688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439709168"/>
+        <c:axId val="389685296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8718,7 +8718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438583872"/>
+        <c:crossAx val="389685688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8726,7 +8726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438583872"/>
+        <c:axId val="389685688"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -8780,7 +8780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439709168"/>
+        <c:crossAx val="389685296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9577,11 +9577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438585048"/>
-        <c:axId val="438585440"/>
+        <c:axId val="389686472"/>
+        <c:axId val="389686864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="438585048"/>
+        <c:axId val="389686472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9624,7 +9624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438585440"/>
+        <c:crossAx val="389686864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9632,7 +9632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438585440"/>
+        <c:axId val="389686864"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -9686,7 +9686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438585048"/>
+        <c:crossAx val="389686472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10444,11 +10444,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="438586224"/>
-        <c:axId val="438586616"/>
+        <c:axId val="390988840"/>
+        <c:axId val="390989232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="438586224"/>
+        <c:axId val="390988840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10491,7 +10491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438586616"/>
+        <c:crossAx val="390989232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10499,7 +10499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438586616"/>
+        <c:axId val="390989232"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -10553,7 +10553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438586224"/>
+        <c:crossAx val="390988840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11350,11 +11350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438584656"/>
-        <c:axId val="438587400"/>
+        <c:axId val="390990016"/>
+        <c:axId val="390990408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="438584656"/>
+        <c:axId val="390990016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11397,7 +11397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438587400"/>
+        <c:crossAx val="390990408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11405,7 +11405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438587400"/>
+        <c:axId val="390990408"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -11458,7 +11458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438584656"/>
+        <c:crossAx val="390990016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12216,11 +12216,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="439708776"/>
-        <c:axId val="439708384"/>
+        <c:axId val="390991192"/>
+        <c:axId val="391266200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439708776"/>
+        <c:axId val="390991192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12263,7 +12263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439708384"/>
+        <c:crossAx val="391266200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12271,7 +12271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439708384"/>
+        <c:axId val="391266200"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -12325,7 +12325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439708776"/>
+        <c:crossAx val="390991192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13122,11 +13122,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439707600"/>
-        <c:axId val="438588184"/>
+        <c:axId val="390988448"/>
+        <c:axId val="390988056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="439707600"/>
+        <c:axId val="390988448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13169,7 +13169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438588184"/>
+        <c:crossAx val="390988056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13177,7 +13177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438588184"/>
+        <c:axId val="390988056"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -13231,7 +13231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439707600"/>
+        <c:crossAx val="390988448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13989,11 +13989,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="438588968"/>
-        <c:axId val="438589360"/>
+        <c:axId val="391266984"/>
+        <c:axId val="391267376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="438588968"/>
+        <c:axId val="391266984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14036,7 +14036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438589360"/>
+        <c:crossAx val="391267376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14044,7 +14044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438589360"/>
+        <c:axId val="391267376"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -14098,7 +14098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438588968"/>
+        <c:crossAx val="391266984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23430,7 +23430,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{199DE40E-7BBF-4CA7-A4FF-08CEE051AD63}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199DE40E-7BBF-4CA7-A4FF-08CEE051AD63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23466,7 +23466,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D4D81BA-2D4A-49AC-8613-4F3C140EAA10}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4D81BA-2D4A-49AC-8613-4F3C140EAA10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23502,7 +23502,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED8FB22F-C6F2-4AF4-B0B6-01345E2E6DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8FB22F-C6F2-4AF4-B0B6-01345E2E6DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23538,7 +23538,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFDEB1F6-3BE7-4E5A-BC72-2D236B2083EB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDEB1F6-3BE7-4E5A-BC72-2D236B2083EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23574,7 +23574,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23BA56C3-805A-4914-A127-4D913FE45377}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BA56C3-805A-4914-A127-4D913FE45377}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23612,7 +23612,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46C10D9F-9929-4E0A-BC74-A794FD546A0C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C10D9F-9929-4E0A-BC74-A794FD546A0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23650,7 +23650,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60FA365F-9095-4FD4-85B6-77F469554B6A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FA365F-9095-4FD4-85B6-77F469554B6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23688,7 +23688,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5832652F-3E1B-41F7-84D2-F702E6A9A773}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5832652F-3E1B-41F7-84D2-F702E6A9A773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23726,7 +23726,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20F0132C-0EFC-4F9F-9F7A-9D91225AA3D4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F0132C-0EFC-4F9F-9F7A-9D91225AA3D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23764,7 +23764,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66D3E358-B9B5-464A-9CBD-2980D617CEDF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D3E358-B9B5-464A-9CBD-2980D617CEDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23807,7 +23807,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D6A7E6F-7E9D-4DC1-87DF-9BF44D95D250}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6A7E6F-7E9D-4DC1-87DF-9BF44D95D250}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23843,7 +23843,7 @@
         <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276A934E-0DDC-4FE6-A981-65182D9A394C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276A934E-0DDC-4FE6-A981-65182D9A394C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23881,7 +23881,7 @@
         <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{453164B8-93F5-4DA7-A76E-6C480F92D9CB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453164B8-93F5-4DA7-A76E-6C480F92D9CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23919,7 +23919,7 @@
         <xdr:cNvPr id="17" name="Chart 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F6D8ACF-CC5D-42F4-AFD1-136DC316B571}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6D8ACF-CC5D-42F4-AFD1-136DC316B571}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23957,7 +23957,7 @@
         <xdr:cNvPr id="18" name="Chart 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8D9899C-2263-46C4-AF2F-59CA59C53371}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D9899C-2263-46C4-AF2F-59CA59C53371}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23995,7 +23995,7 @@
         <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEE89FE4-9AA0-4CA7-8D43-2699984BC187}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE89FE4-9AA0-4CA7-8D43-2699984BC187}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24033,7 +24033,7 @@
         <xdr:cNvPr id="20" name="Chart 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4205BC2-6FFD-45A4-9A8E-97A17E7D3184}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4205BC2-6FFD-45A4-9A8E-97A17E7D3184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46888,7 +46888,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48015,7 +48015,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30:T30"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
